--- a/sent-to-Prof/daniel-final/visualization/model_comparison_with_econ_cost.xlsx
+++ b/sent-to-Prof/daniel-final/visualization/model_comparison_with_econ_cost.xlsx
@@ -1,99 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dle/Documents/VSCode Repo/Fault-Detection-SECOM/3rd presentation/daniel/visualization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dle/Documents/VSCode Repo/Fault-Detection-SECOM-1/sent-to-Prof/daniel-final/visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E00933F-C5D6-8140-A144-72C1BD8792C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD5A317-B64B-6849-84A9-D4E31A3EE0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19980" xr2:uid="{F673DB04-823A-FF43-B336-C69621BEEBEA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19980" activeTab="1" xr2:uid="{F673DB04-823A-FF43-B336-C69621BEEBEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet4!$D$36:$D$44</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet4!$E$35</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet4!$E$36:$E$44</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet4!$F$35</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet4!$F$36:$F$44</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet4!$G$35</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet4!$G$36:$G$44</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet4!$H$35</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet4!$H$36:$H$44</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet4!$I$35</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet4!$I$36:$I$44</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$51</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$52</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$53</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$54</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$55</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$56</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$B$57</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$B$58</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$59</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$C$50:$L$50</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$C$51:$L$51</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$C$52:$L$52</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$C$53:$L$53</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$C$54:$L$54</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$55:$L$55</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$56:$L$56</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$C$57:$L$57</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$C$58:$L$58</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$C$59:$L$59</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$51</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$B$52</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$B$53</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$B$54</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$B$55</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$B$56</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$B$57</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$B$58</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$B$59</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$C$50:$L$50</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$C$51:$L$51</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$C$52:$L$52</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$C$53:$L$53</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$C$54:$L$54</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$C$55:$L$55</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$C$56:$L$56</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$C$57:$L$57</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$C$58:$L$58</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$C$59:$L$59</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet2!$A$4:$A$12</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet2!$B$3</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet2!$B$4:$B$12</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet2!$C$3</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet2!$C$4:$C$12</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet2!$D$3</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet2!$D$4:$D$12</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sheet2!$E$3</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Sheet2!$E$4:$E$12</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet4!$D$36:$D$44</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet4!$E$35</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet4!$I$36:$I$44</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet4!$E$36:$E$44</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet4!$F$35</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet4!$F$36:$F$44</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet4!$G$35</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet4!$G$36:$G$44</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet4!$H$35</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet4!$H$36:$H$44</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet4!$I$35</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="77">
   <si>
     <t>Model</t>
   </si>
@@ -375,26 +301,27 @@
     <t>Econ Cost</t>
   </si>
   <si>
-    <t>Type_2_cost / Type_1_cost Ratio</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
     <t>[[107, 186], [6, 15]]</t>
+  </si>
+  <si>
+    <t>Ratio(Type 2 Error Cost ; Type 1 Eorr Cost)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="171" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="166" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="168" formatCode="0.E+00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,11 +447,31 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -600,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -622,17 +569,8 @@
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -653,11 +591,11 @@
     </xf>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -665,22 +603,64 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6354,1005 +6334,1005 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E86E669-ABC2-8947-AEBD-7BC985FF568D}">
   <dimension ref="B3:O44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="177" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" topLeftCell="B9" zoomScale="108" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="28"/>
-    <col min="2" max="2" width="12.6640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="11.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="28"/>
-    <col min="14" max="14" width="14.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="28"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="12.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="11.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="25"/>
+    <col min="14" max="14" width="14.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D3" s="29" t="s">
+    <row r="3" spans="4:15">
+      <c r="D3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="4:15" ht="30" x14ac:dyDescent="0.15">
-      <c r="D4" s="30" t="s">
+    <row r="4" spans="4:15" ht="30">
+      <c r="D4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="29">
         <v>0.79979999999999996</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="29">
         <v>0.71399999999999997</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="30">
         <v>0.2</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="36">
         <v>60</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="36">
         <v>6</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="29">
         <v>0.75480000000000003</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="29">
         <v>0.3125</v>
       </c>
-      <c r="N4" s="34">
-        <f>J4*$E$17+K4*$E$18</f>
+      <c r="N4" s="31">
+        <f t="shared" ref="N4:N12" si="0">J4*$E$17+K4*$E$18</f>
         <v>6000060</v>
       </c>
     </row>
-    <row r="5" spans="4:15" ht="30" x14ac:dyDescent="0.15">
-      <c r="D5" s="30" t="s">
+    <row r="5" spans="4:15" ht="30">
+      <c r="D5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="29">
         <v>0.79300000000000004</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="29">
         <v>0.61899999999999999</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="30">
         <v>0.19</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="36">
         <v>57</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="36">
         <v>8</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="29">
         <v>0.71220000000000006</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="29">
         <v>0.28570000000000001</v>
       </c>
-      <c r="N5" s="34">
-        <f>J5*$E$17+K5*$E$18</f>
+      <c r="N5" s="31">
+        <f t="shared" si="0"/>
         <v>8000057</v>
       </c>
     </row>
-    <row r="6" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D6" s="30" t="s">
+    <row r="6" spans="4:15">
+      <c r="D6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32">
+      <c r="F6" s="27"/>
+      <c r="G6" s="29">
         <v>0.7802</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="29">
         <v>0.71419999999999995</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="30">
         <v>0.19</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="36">
         <v>63</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="36">
         <v>6</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="29">
         <v>0.81089999999999995</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="29">
         <v>0.3125</v>
       </c>
-      <c r="N6" s="34">
-        <f>J6*$E$17+K6*$E$18</f>
+      <c r="N6" s="31">
+        <f t="shared" si="0"/>
         <v>6000063</v>
       </c>
     </row>
-    <row r="7" spans="4:15" ht="30" x14ac:dyDescent="0.15">
-      <c r="D7" s="30" t="s">
+    <row r="7" spans="4:15" ht="30">
+      <c r="D7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="29">
         <v>0.9</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="29">
         <v>0.62</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="29">
         <v>0.35</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="36">
         <v>24</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="36">
         <v>8</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="30">
         <v>0.8</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="30">
         <v>0.45</v>
       </c>
-      <c r="N7" s="34">
-        <f>J7*$E$17+K7*$E$18</f>
+      <c r="N7" s="31">
+        <f t="shared" si="0"/>
         <v>8000024</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="30" x14ac:dyDescent="0.15">
-      <c r="D8" s="30" t="s">
+    <row r="8" spans="4:15" ht="30">
+      <c r="D8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0.38853500000000002</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="I8" s="30">
+        <v>7.4626999999999999E-2</v>
+      </c>
+      <c r="J8" s="36">
+        <v>186</v>
+      </c>
+      <c r="K8" s="36">
+        <v>6</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0.53973700000000002</v>
+      </c>
+      <c r="M8" s="29">
+        <v>0.13513500000000001</v>
+      </c>
+      <c r="N8" s="31">
+        <f t="shared" si="0"/>
+        <v>6000186</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" ht="30">
+      <c r="D9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.87</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0.52</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="J9" s="36">
+        <v>32</v>
+      </c>
+      <c r="K9" s="36">
+        <v>10</v>
+      </c>
+      <c r="L9" s="29">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="M9" s="30">
+        <v>0.34</v>
+      </c>
+      <c r="N9" s="31">
+        <f t="shared" si="0"/>
+        <v>10000032</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" ht="30">
+      <c r="D10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="J10" s="36">
+        <v>25</v>
+      </c>
+      <c r="K10" s="36">
+        <v>8</v>
+      </c>
+      <c r="L10" s="30">
+        <v>0.76</v>
+      </c>
+      <c r="M10" s="30">
+        <v>0.44</v>
+      </c>
+      <c r="N10" s="31">
+        <f t="shared" si="0"/>
+        <v>8000025</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15">
+      <c r="D11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="29">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="J11" s="36">
+        <v>25</v>
+      </c>
+      <c r="K11" s="36">
+        <v>8</v>
+      </c>
+      <c r="L11" s="30">
+        <v>0.76</v>
+      </c>
+      <c r="M11" s="30">
+        <v>0.44</v>
+      </c>
+      <c r="N11" s="31">
+        <f t="shared" si="0"/>
+        <v>8000025</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" ht="30">
+      <c r="D12" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="I12" s="29">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="J12" s="36">
+        <v>26</v>
+      </c>
+      <c r="K12" s="36">
+        <v>11</v>
+      </c>
+      <c r="L12" s="30">
+        <v>0.69</v>
+      </c>
+      <c r="M12" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="N12" s="31">
+        <f t="shared" si="0"/>
+        <v>11000026</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="D17" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="D18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="25">
+        <v>1000000</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="23" customHeight="1">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="32">
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+    </row>
+    <row r="21" spans="2:15" ht="19" customHeight="1">
+      <c r="B21" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45">
+        <v>1</v>
+      </c>
+      <c r="F21" s="45">
+        <v>5</v>
+      </c>
+      <c r="G21" s="45">
+        <v>10</v>
+      </c>
+      <c r="H21" s="45">
+        <v>40</v>
+      </c>
+      <c r="I21" s="45">
+        <v>100</v>
+      </c>
+      <c r="J21" s="45">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="45">
+        <v>10000</v>
+      </c>
+      <c r="L21" s="45">
+        <v>1000000</v>
+      </c>
+      <c r="N21" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" s="34" customFormat="1" ht="19" customHeight="1">
+      <c r="B22" s="43">
+        <v>60</v>
+      </c>
+      <c r="C22" s="43">
+        <v>6</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="47">
+        <v>66</v>
+      </c>
+      <c r="F22" s="47">
+        <v>90</v>
+      </c>
+      <c r="G22" s="47">
+        <v>120</v>
+      </c>
+      <c r="H22" s="47">
+        <v>300</v>
+      </c>
+      <c r="I22" s="47">
+        <v>660</v>
+      </c>
+      <c r="J22" s="47">
+        <v>6060</v>
+      </c>
+      <c r="K22" s="47">
+        <v>60060</v>
+      </c>
+      <c r="L22" s="47">
+        <v>6000060</v>
+      </c>
+      <c r="N22" s="33">
+        <v>63</v>
+      </c>
+      <c r="O22" s="32"/>
+    </row>
+    <row r="23" spans="2:15" s="34" customFormat="1" ht="19" customHeight="1">
+      <c r="B23" s="43">
+        <v>57</v>
+      </c>
+      <c r="C23" s="43">
+        <v>8</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="47">
+        <v>65</v>
+      </c>
+      <c r="F23" s="47">
+        <v>97</v>
+      </c>
+      <c r="G23" s="47">
+        <v>137</v>
+      </c>
+      <c r="H23" s="47">
+        <v>377</v>
+      </c>
+      <c r="I23" s="47">
+        <v>857</v>
+      </c>
+      <c r="J23" s="47">
+        <v>8057</v>
+      </c>
+      <c r="K23" s="47">
+        <v>80057</v>
+      </c>
+      <c r="L23" s="47">
+        <v>8000057</v>
+      </c>
+      <c r="N23" s="33">
+        <v>61</v>
+      </c>
+      <c r="O23" s="32"/>
+    </row>
+    <row r="24" spans="2:15" s="34" customFormat="1" ht="19" customHeight="1">
+      <c r="B24" s="43">
+        <v>63</v>
+      </c>
+      <c r="C24" s="43">
+        <v>6</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="47">
+        <v>69</v>
+      </c>
+      <c r="F24" s="47">
+        <v>93</v>
+      </c>
+      <c r="G24" s="47">
+        <v>123</v>
+      </c>
+      <c r="H24" s="47">
+        <v>303</v>
+      </c>
+      <c r="I24" s="47">
+        <v>663</v>
+      </c>
+      <c r="J24" s="47">
+        <v>6063</v>
+      </c>
+      <c r="K24" s="47">
+        <v>60063</v>
+      </c>
+      <c r="L24" s="47">
+        <v>6000063</v>
+      </c>
+      <c r="N24" s="33">
+        <v>66</v>
+      </c>
+      <c r="O24" s="32"/>
+    </row>
+    <row r="25" spans="2:15" s="34" customFormat="1" ht="19" customHeight="1">
+      <c r="B25" s="43">
+        <v>24</v>
+      </c>
+      <c r="C25" s="43">
+        <v>8</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="47">
+        <v>32</v>
+      </c>
+      <c r="F25" s="47">
+        <v>64</v>
+      </c>
+      <c r="G25" s="47">
+        <v>104</v>
+      </c>
+      <c r="H25" s="47">
+        <v>344</v>
+      </c>
+      <c r="I25" s="47">
+        <v>824</v>
+      </c>
+      <c r="J25" s="47">
+        <v>8024</v>
+      </c>
+      <c r="K25" s="47">
+        <v>80024</v>
+      </c>
+      <c r="L25" s="47">
+        <v>8000024</v>
+      </c>
+      <c r="N25" s="33">
+        <v>28</v>
+      </c>
+      <c r="O25" s="32"/>
+    </row>
+    <row r="26" spans="2:15" s="34" customFormat="1" ht="19" customHeight="1">
+      <c r="B26" s="43">
+        <v>186</v>
+      </c>
+      <c r="C26" s="43">
+        <v>6</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="47">
+        <v>192</v>
+      </c>
+      <c r="F26" s="47">
+        <v>216</v>
+      </c>
+      <c r="G26" s="47">
+        <v>246</v>
+      </c>
+      <c r="H26" s="47">
+        <v>426</v>
+      </c>
+      <c r="I26" s="47">
+        <v>786</v>
+      </c>
+      <c r="J26" s="47">
+        <v>6186</v>
+      </c>
+      <c r="K26" s="47">
+        <v>60186</v>
+      </c>
+      <c r="L26" s="47">
+        <v>6000186</v>
+      </c>
+      <c r="N26" s="33">
+        <v>87</v>
+      </c>
+      <c r="O26" s="32"/>
+    </row>
+    <row r="27" spans="2:15" s="34" customFormat="1" ht="19" customHeight="1">
+      <c r="B27" s="43">
+        <v>32</v>
+      </c>
+      <c r="C27" s="43">
+        <v>10</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="47">
+        <v>42</v>
+      </c>
+      <c r="F27" s="47">
+        <v>82</v>
+      </c>
+      <c r="G27" s="47">
+        <v>132</v>
+      </c>
+      <c r="H27" s="47">
+        <v>432</v>
+      </c>
+      <c r="I27" s="47">
+        <v>1032</v>
+      </c>
+      <c r="J27" s="47">
+        <v>10032</v>
+      </c>
+      <c r="K27" s="47">
+        <v>100032</v>
+      </c>
+      <c r="L27" s="47">
+        <v>10000032</v>
+      </c>
+      <c r="N27" s="33">
+        <v>37</v>
+      </c>
+      <c r="O27" s="32"/>
+    </row>
+    <row r="28" spans="2:15" s="34" customFormat="1" ht="19" customHeight="1">
+      <c r="B28" s="43">
+        <v>25</v>
+      </c>
+      <c r="C28" s="43">
+        <v>8</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="47">
+        <v>33</v>
+      </c>
+      <c r="F28" s="47">
+        <v>65</v>
+      </c>
+      <c r="G28" s="47">
+        <v>105</v>
+      </c>
+      <c r="H28" s="47">
+        <v>345</v>
+      </c>
+      <c r="I28" s="47">
+        <v>825</v>
+      </c>
+      <c r="J28" s="47">
+        <v>8025</v>
+      </c>
+      <c r="K28" s="47">
+        <v>80025</v>
+      </c>
+      <c r="L28" s="47">
+        <v>8000025</v>
+      </c>
+      <c r="N28" s="33">
+        <v>29</v>
+      </c>
+      <c r="O28" s="32"/>
+    </row>
+    <row r="29" spans="2:15" s="34" customFormat="1" ht="19" customHeight="1">
+      <c r="B29" s="43">
+        <v>25</v>
+      </c>
+      <c r="C29" s="43">
+        <v>8</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="47">
+        <v>33</v>
+      </c>
+      <c r="F29" s="47">
+        <v>65</v>
+      </c>
+      <c r="G29" s="47">
+        <v>105</v>
+      </c>
+      <c r="H29" s="47">
+        <v>345</v>
+      </c>
+      <c r="I29" s="47">
+        <v>825</v>
+      </c>
+      <c r="J29" s="47">
+        <v>8025</v>
+      </c>
+      <c r="K29" s="47">
+        <v>80025</v>
+      </c>
+      <c r="L29" s="47">
+        <v>8000025</v>
+      </c>
+      <c r="N29" s="33">
+        <v>29</v>
+      </c>
+      <c r="O29" s="32"/>
+    </row>
+    <row r="30" spans="2:15" s="34" customFormat="1" ht="19" customHeight="1">
+      <c r="B30" s="43">
+        <v>26</v>
+      </c>
+      <c r="C30" s="43">
+        <v>11</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="47">
+        <v>37</v>
+      </c>
+      <c r="F30" s="47">
+        <v>81</v>
+      </c>
+      <c r="G30" s="47">
+        <v>136</v>
+      </c>
+      <c r="H30" s="47">
+        <v>466</v>
+      </c>
+      <c r="I30" s="47">
+        <v>1126</v>
+      </c>
+      <c r="J30" s="47">
+        <v>11026</v>
+      </c>
+      <c r="K30" s="47">
+        <v>110026</v>
+      </c>
+      <c r="L30" s="47">
+        <v>11000026</v>
+      </c>
+      <c r="N30" s="33">
+        <v>31.5</v>
+      </c>
+      <c r="O30" s="32"/>
+    </row>
+    <row r="31" spans="2:15" ht="19" customHeight="1">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+    </row>
+    <row r="35" spans="4:9">
+      <c r="D35" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9">
+      <c r="D36" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="30">
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="F36" s="30">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G36" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H36" s="30">
+        <v>0.3125</v>
+      </c>
+      <c r="I36" s="30">
+        <v>0.75480000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9">
+      <c r="D37" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="30">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="F37" s="30">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="G37" s="30">
+        <v>0.19</v>
+      </c>
+      <c r="H37" s="30">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="I37" s="30">
+        <v>0.71220000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9">
+      <c r="D38" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="30">
+        <v>0.7802</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="G38" s="30">
+        <v>0.19</v>
+      </c>
+      <c r="H38" s="30">
+        <v>0.3125</v>
+      </c>
+      <c r="I38" s="30">
+        <v>0.81089999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9">
+      <c r="D39" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0.62</v>
+      </c>
+      <c r="G39" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="H39" s="30">
+        <v>0.45</v>
+      </c>
+      <c r="I39" s="30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9">
+      <c r="D40" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="30">
         <v>0.38853500000000002</v>
       </c>
-      <c r="H8" s="32">
+      <c r="F40" s="30">
         <v>0.71428599999999998</v>
       </c>
-      <c r="I8" s="33">
+      <c r="G40" s="30">
         <v>7.4626999999999999E-2</v>
       </c>
-      <c r="J8" s="39">
-        <v>186</v>
-      </c>
-      <c r="K8" s="39">
-        <v>6</v>
-      </c>
-      <c r="L8" s="32">
+      <c r="H40" s="30">
+        <v>0.13513500000000001</v>
+      </c>
+      <c r="I40" s="30">
         <v>0.53973700000000002</v>
       </c>
-      <c r="M8" s="32">
-        <v>0.13513500000000001</v>
-      </c>
-      <c r="N8" s="34">
-        <f>J8*$E$17+K8*$E$18</f>
-        <v>6000186</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="4:15" ht="30" x14ac:dyDescent="0.15">
-      <c r="D9" s="30" t="s">
+    </row>
+    <row r="41" spans="4:9">
+      <c r="D41" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="32">
+      <c r="E41" s="30">
         <v>0.87</v>
       </c>
-      <c r="H9" s="32">
+      <c r="F41" s="30">
         <v>0.52</v>
       </c>
-      <c r="I9" s="33">
+      <c r="G41" s="30">
         <v>0.26</v>
       </c>
-      <c r="J9" s="39">
-        <v>32</v>
-      </c>
-      <c r="K9" s="39">
-        <v>10</v>
-      </c>
-      <c r="L9" s="32">
+      <c r="H41" s="30">
+        <v>0.34</v>
+      </c>
+      <c r="I41" s="30">
         <v>0.86599999999999999</v>
       </c>
-      <c r="M9" s="33">
-        <v>0.34</v>
-      </c>
-      <c r="N9" s="34">
-        <f>J9*$E$17+K9*$E$18</f>
-        <v>10000032</v>
-      </c>
-    </row>
-    <row r="10" spans="4:15" ht="30" x14ac:dyDescent="0.15">
-      <c r="D10" s="30" t="s">
+    </row>
+    <row r="42" spans="4:9">
+      <c r="D42" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="32">
+      <c r="E42" s="30">
         <v>0.89400000000000002</v>
       </c>
-      <c r="H10" s="32">
+      <c r="F42" s="30">
         <v>0.61899999999999999</v>
       </c>
-      <c r="I10" s="32">
+      <c r="G42" s="30">
         <v>0.34200000000000003</v>
       </c>
-      <c r="J10" s="39">
-        <v>25</v>
-      </c>
-      <c r="K10" s="39">
-        <v>8</v>
-      </c>
-      <c r="L10" s="33">
+      <c r="H42" s="30">
+        <v>0.44</v>
+      </c>
+      <c r="I42" s="30">
         <v>0.76</v>
       </c>
-      <c r="M10" s="33">
+    </row>
+    <row r="43" spans="4:9">
+      <c r="D43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="30">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="F43" s="30">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="G43" s="30">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="H43" s="30">
         <v>0.44</v>
       </c>
-      <c r="N10" s="34">
-        <f>J10*$E$17+K10*$E$18</f>
-        <v>8000025</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D11" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="H11" s="32">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="I11" s="32">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="J11" s="39">
-        <v>25</v>
-      </c>
-      <c r="K11" s="39">
-        <v>8</v>
-      </c>
-      <c r="L11" s="33">
+      <c r="I43" s="30">
         <v>0.76</v>
       </c>
-      <c r="M11" s="33">
-        <v>0.44</v>
-      </c>
-      <c r="N11" s="34">
-        <f>J11*$E$17+K11*$E$18</f>
-        <v>8000025</v>
-      </c>
-    </row>
-    <row r="12" spans="4:15" ht="30" x14ac:dyDescent="0.15">
-      <c r="D12" s="30" t="s">
+    </row>
+    <row r="44" spans="4:9">
+      <c r="D44" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="32">
+      <c r="E44" s="30">
         <v>0.88200000000000001</v>
       </c>
-      <c r="H12" s="32">
+      <c r="F44" s="30">
         <v>0.47599999999999998</v>
       </c>
-      <c r="I12" s="32">
+      <c r="G44" s="30">
         <v>0.27700000000000002</v>
       </c>
-      <c r="J12" s="39">
-        <v>26</v>
-      </c>
-      <c r="K12" s="39">
-        <v>11</v>
-      </c>
-      <c r="L12" s="33">
-        <v>0.69</v>
-      </c>
-      <c r="M12" s="33">
+      <c r="H44" s="30">
         <v>0.35</v>
       </c>
-      <c r="N12" s="34">
-        <f>J12*$E$17+K12*$E$18</f>
-        <v>11000026</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="D17" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="D18" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="28">
-        <v>1000000</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-    </row>
-    <row r="21" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43">
-        <v>1</v>
-      </c>
-      <c r="F21" s="43">
-        <v>5</v>
-      </c>
-      <c r="G21" s="43">
-        <v>10</v>
-      </c>
-      <c r="H21" s="43">
-        <v>40</v>
-      </c>
-      <c r="I21" s="43">
-        <v>100</v>
-      </c>
-      <c r="J21" s="43">
-        <v>1000</v>
-      </c>
-      <c r="K21" s="43">
-        <v>10000</v>
-      </c>
-      <c r="L21" s="43">
-        <v>1000000</v>
-      </c>
-      <c r="N21" s="28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" s="37" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="35">
-        <v>60</v>
-      </c>
-      <c r="C22" s="35">
-        <v>6</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="44">
-        <v>66</v>
-      </c>
-      <c r="F22" s="44">
-        <v>90</v>
-      </c>
-      <c r="G22" s="44">
-        <v>120</v>
-      </c>
-      <c r="H22" s="44">
-        <v>300</v>
-      </c>
-      <c r="I22" s="44">
-        <v>660</v>
-      </c>
-      <c r="J22" s="44">
-        <v>6060</v>
-      </c>
-      <c r="K22" s="44">
-        <v>60060</v>
-      </c>
-      <c r="L22" s="44">
-        <v>6000060</v>
-      </c>
-      <c r="N22" s="36">
-        <v>63</v>
-      </c>
-      <c r="O22" s="35"/>
-    </row>
-    <row r="23" spans="2:15" s="37" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="35">
-        <v>57</v>
-      </c>
-      <c r="C23" s="35">
-        <v>8</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="44">
-        <v>65</v>
-      </c>
-      <c r="F23" s="44">
-        <v>97</v>
-      </c>
-      <c r="G23" s="44">
-        <v>137</v>
-      </c>
-      <c r="H23" s="44">
-        <v>377</v>
-      </c>
-      <c r="I23" s="44">
-        <v>857</v>
-      </c>
-      <c r="J23" s="44">
-        <v>8057</v>
-      </c>
-      <c r="K23" s="44">
-        <v>80057</v>
-      </c>
-      <c r="L23" s="44">
-        <v>8000057</v>
-      </c>
-      <c r="N23" s="36">
-        <v>61</v>
-      </c>
-      <c r="O23" s="35"/>
-    </row>
-    <row r="24" spans="2:15" s="37" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="35">
-        <v>63</v>
-      </c>
-      <c r="C24" s="35">
-        <v>6</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="44">
-        <v>69</v>
-      </c>
-      <c r="F24" s="44">
-        <v>93</v>
-      </c>
-      <c r="G24" s="44">
-        <v>123</v>
-      </c>
-      <c r="H24" s="44">
-        <v>303</v>
-      </c>
-      <c r="I24" s="44">
-        <v>663</v>
-      </c>
-      <c r="J24" s="44">
-        <v>6063</v>
-      </c>
-      <c r="K24" s="44">
-        <v>60063</v>
-      </c>
-      <c r="L24" s="44">
-        <v>6000063</v>
-      </c>
-      <c r="N24" s="36">
-        <v>66</v>
-      </c>
-      <c r="O24" s="35"/>
-    </row>
-    <row r="25" spans="2:15" s="37" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="35">
-        <v>24</v>
-      </c>
-      <c r="C25" s="35">
-        <v>8</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="44">
-        <v>32</v>
-      </c>
-      <c r="F25" s="44">
-        <v>64</v>
-      </c>
-      <c r="G25" s="44">
-        <v>104</v>
-      </c>
-      <c r="H25" s="44">
-        <v>344</v>
-      </c>
-      <c r="I25" s="44">
-        <v>824</v>
-      </c>
-      <c r="J25" s="44">
-        <v>8024</v>
-      </c>
-      <c r="K25" s="44">
-        <v>80024</v>
-      </c>
-      <c r="L25" s="44">
-        <v>8000024</v>
-      </c>
-      <c r="N25" s="36">
-        <v>28</v>
-      </c>
-      <c r="O25" s="35"/>
-    </row>
-    <row r="26" spans="2:15" s="37" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="35">
-        <v>186</v>
-      </c>
-      <c r="C26" s="35">
-        <v>6</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="44">
-        <v>192</v>
-      </c>
-      <c r="F26" s="44">
-        <v>216</v>
-      </c>
-      <c r="G26" s="44">
-        <v>246</v>
-      </c>
-      <c r="H26" s="44">
-        <v>426</v>
-      </c>
-      <c r="I26" s="44">
-        <v>786</v>
-      </c>
-      <c r="J26" s="44">
-        <v>6186</v>
-      </c>
-      <c r="K26" s="44">
-        <v>60186</v>
-      </c>
-      <c r="L26" s="44">
-        <v>6000186</v>
-      </c>
-      <c r="N26" s="36">
-        <v>87</v>
-      </c>
-      <c r="O26" s="35"/>
-    </row>
-    <row r="27" spans="2:15" s="37" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="35">
-        <v>32</v>
-      </c>
-      <c r="C27" s="35">
-        <v>10</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="44">
-        <v>42</v>
-      </c>
-      <c r="F27" s="44">
-        <v>82</v>
-      </c>
-      <c r="G27" s="44">
-        <v>132</v>
-      </c>
-      <c r="H27" s="44">
-        <v>432</v>
-      </c>
-      <c r="I27" s="44">
-        <v>1032</v>
-      </c>
-      <c r="J27" s="44">
-        <v>10032</v>
-      </c>
-      <c r="K27" s="44">
-        <v>100032</v>
-      </c>
-      <c r="L27" s="44">
-        <v>10000032</v>
-      </c>
-      <c r="N27" s="36">
-        <v>37</v>
-      </c>
-      <c r="O27" s="35"/>
-    </row>
-    <row r="28" spans="2:15" s="37" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="35">
-        <v>25</v>
-      </c>
-      <c r="C28" s="35">
-        <v>8</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="44">
-        <v>33</v>
-      </c>
-      <c r="F28" s="44">
-        <v>65</v>
-      </c>
-      <c r="G28" s="44">
-        <v>105</v>
-      </c>
-      <c r="H28" s="44">
-        <v>345</v>
-      </c>
-      <c r="I28" s="44">
-        <v>825</v>
-      </c>
-      <c r="J28" s="44">
-        <v>8025</v>
-      </c>
-      <c r="K28" s="44">
-        <v>80025</v>
-      </c>
-      <c r="L28" s="44">
-        <v>8000025</v>
-      </c>
-      <c r="N28" s="36">
-        <v>29</v>
-      </c>
-      <c r="O28" s="35"/>
-    </row>
-    <row r="29" spans="2:15" s="37" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="35">
-        <v>25</v>
-      </c>
-      <c r="C29" s="35">
-        <v>8</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="44">
-        <v>33</v>
-      </c>
-      <c r="F29" s="44">
-        <v>65</v>
-      </c>
-      <c r="G29" s="44">
-        <v>105</v>
-      </c>
-      <c r="H29" s="44">
-        <v>345</v>
-      </c>
-      <c r="I29" s="44">
-        <v>825</v>
-      </c>
-      <c r="J29" s="44">
-        <v>8025</v>
-      </c>
-      <c r="K29" s="44">
-        <v>80025</v>
-      </c>
-      <c r="L29" s="44">
-        <v>8000025</v>
-      </c>
-      <c r="N29" s="36">
-        <v>29</v>
-      </c>
-      <c r="O29" s="35"/>
-    </row>
-    <row r="30" spans="2:15" s="37" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="35">
-        <v>26</v>
-      </c>
-      <c r="C30" s="35">
-        <v>11</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="44">
-        <v>37</v>
-      </c>
-      <c r="F30" s="44">
-        <v>81</v>
-      </c>
-      <c r="G30" s="44">
-        <v>136</v>
-      </c>
-      <c r="H30" s="44">
-        <v>466</v>
-      </c>
-      <c r="I30" s="44">
-        <v>1126</v>
-      </c>
-      <c r="J30" s="44">
-        <v>11026</v>
-      </c>
-      <c r="K30" s="44">
-        <v>110026</v>
-      </c>
-      <c r="L30" s="44">
-        <v>11000026</v>
-      </c>
-      <c r="N30" s="36">
-        <v>31.5</v>
-      </c>
-      <c r="O30" s="35"/>
-    </row>
-    <row r="31" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D35" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D36" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="33">
-        <v>0.79979999999999996</v>
-      </c>
-      <c r="F36" s="33">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="G36" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="H36" s="33">
-        <v>0.3125</v>
-      </c>
-      <c r="I36" s="33">
-        <v>0.75480000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D37" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="33">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="F37" s="33">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="G37" s="33">
-        <v>0.19</v>
-      </c>
-      <c r="H37" s="33">
-        <v>0.28570000000000001</v>
-      </c>
-      <c r="I37" s="33">
-        <v>0.71220000000000006</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D38" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="33">
-        <v>0.7802</v>
-      </c>
-      <c r="F38" s="33">
-        <v>0.71419999999999995</v>
-      </c>
-      <c r="G38" s="33">
-        <v>0.19</v>
-      </c>
-      <c r="H38" s="33">
-        <v>0.3125</v>
-      </c>
-      <c r="I38" s="33">
-        <v>0.81089999999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D39" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="F39" s="33">
-        <v>0.62</v>
-      </c>
-      <c r="G39" s="33">
-        <v>0.35</v>
-      </c>
-      <c r="H39" s="33">
-        <v>0.45</v>
-      </c>
-      <c r="I39" s="33">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D40" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="33">
-        <v>0.38853500000000002</v>
-      </c>
-      <c r="F40" s="33">
-        <v>0.71428599999999998</v>
-      </c>
-      <c r="G40" s="33">
-        <v>7.4626999999999999E-2</v>
-      </c>
-      <c r="H40" s="33">
-        <v>0.13513500000000001</v>
-      </c>
-      <c r="I40" s="33">
-        <v>0.53973700000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D41" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="33">
-        <v>0.87</v>
-      </c>
-      <c r="F41" s="33">
-        <v>0.52</v>
-      </c>
-      <c r="G41" s="33">
-        <v>0.26</v>
-      </c>
-      <c r="H41" s="33">
-        <v>0.34</v>
-      </c>
-      <c r="I41" s="33">
-        <v>0.86599999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D42" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="33">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="F42" s="33">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="G42" s="33">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="H42" s="33">
-        <v>0.44</v>
-      </c>
-      <c r="I42" s="33">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D43" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="33">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="F43" s="33">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="G43" s="33">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="H43" s="33">
-        <v>0.44</v>
-      </c>
-      <c r="I43" s="33">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D44" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="33">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="F44" s="33">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="G44" s="33">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="H44" s="33">
-        <v>0.35</v>
-      </c>
-      <c r="I44" s="33">
+      <c r="I44" s="30">
         <v>0.69</v>
       </c>
     </row>
@@ -7487,6 +7467,492 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB09201-63AE-F546-A57D-6C40C8A29F45}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="247" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53">
+        <v>1</v>
+      </c>
+      <c r="E2" s="53">
+        <v>5</v>
+      </c>
+      <c r="F2" s="53">
+        <v>10</v>
+      </c>
+      <c r="G2" s="53">
+        <v>40</v>
+      </c>
+      <c r="H2" s="53">
+        <v>100</v>
+      </c>
+      <c r="I2" s="53">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="53">
+        <v>10000</v>
+      </c>
+      <c r="K2" s="56">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="51">
+        <v>60</v>
+      </c>
+      <c r="B3" s="51">
+        <v>6</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="55">
+        <v>66</v>
+      </c>
+      <c r="E3" s="55">
+        <v>90</v>
+      </c>
+      <c r="F3" s="55">
+        <v>120</v>
+      </c>
+      <c r="G3" s="55">
+        <v>300</v>
+      </c>
+      <c r="H3" s="55">
+        <v>660</v>
+      </c>
+      <c r="I3" s="55">
+        <v>6060</v>
+      </c>
+      <c r="J3" s="55">
+        <v>60060</v>
+      </c>
+      <c r="K3" s="56">
+        <v>6000060</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="51">
+        <v>57</v>
+      </c>
+      <c r="B4" s="51">
+        <v>8</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="55">
+        <v>65</v>
+      </c>
+      <c r="E4" s="55">
+        <v>97</v>
+      </c>
+      <c r="F4" s="55">
+        <v>137</v>
+      </c>
+      <c r="G4" s="55">
+        <v>377</v>
+      </c>
+      <c r="H4" s="55">
+        <v>857</v>
+      </c>
+      <c r="I4" s="55">
+        <v>8057</v>
+      </c>
+      <c r="J4" s="55">
+        <v>80057</v>
+      </c>
+      <c r="K4" s="56">
+        <v>8000057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="51">
+        <v>63</v>
+      </c>
+      <c r="B5" s="51">
+        <v>6</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="55">
+        <v>69</v>
+      </c>
+      <c r="E5" s="55">
+        <v>93</v>
+      </c>
+      <c r="F5" s="55">
+        <v>123</v>
+      </c>
+      <c r="G5" s="55">
+        <v>303</v>
+      </c>
+      <c r="H5" s="55">
+        <v>663</v>
+      </c>
+      <c r="I5" s="55">
+        <v>6063</v>
+      </c>
+      <c r="J5" s="55">
+        <v>60063</v>
+      </c>
+      <c r="K5" s="56">
+        <v>6000063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="51">
+        <v>24</v>
+      </c>
+      <c r="B6" s="51">
+        <v>8</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="55">
+        <v>32</v>
+      </c>
+      <c r="E6" s="55">
+        <v>64</v>
+      </c>
+      <c r="F6" s="55">
+        <v>104</v>
+      </c>
+      <c r="G6" s="55">
+        <v>344</v>
+      </c>
+      <c r="H6" s="55">
+        <v>824</v>
+      </c>
+      <c r="I6" s="55">
+        <v>8024</v>
+      </c>
+      <c r="J6" s="55">
+        <v>80024</v>
+      </c>
+      <c r="K6" s="56">
+        <v>8000024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="51">
+        <v>186</v>
+      </c>
+      <c r="B7" s="51">
+        <v>6</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="55">
+        <v>192</v>
+      </c>
+      <c r="E7" s="55">
+        <v>216</v>
+      </c>
+      <c r="F7" s="55">
+        <v>246</v>
+      </c>
+      <c r="G7" s="55">
+        <v>426</v>
+      </c>
+      <c r="H7" s="55">
+        <v>786</v>
+      </c>
+      <c r="I7" s="55">
+        <v>6186</v>
+      </c>
+      <c r="J7" s="55">
+        <v>60186</v>
+      </c>
+      <c r="K7" s="56">
+        <v>6000186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="51">
+        <v>32</v>
+      </c>
+      <c r="B8" s="51">
+        <v>10</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="55">
+        <v>42</v>
+      </c>
+      <c r="E8" s="55">
+        <v>82</v>
+      </c>
+      <c r="F8" s="55">
+        <v>132</v>
+      </c>
+      <c r="G8" s="55">
+        <v>432</v>
+      </c>
+      <c r="H8" s="55">
+        <v>1032</v>
+      </c>
+      <c r="I8" s="55">
+        <v>10032</v>
+      </c>
+      <c r="J8" s="55">
+        <v>100032</v>
+      </c>
+      <c r="K8" s="56">
+        <v>10000032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="51">
+        <v>25</v>
+      </c>
+      <c r="B9" s="51">
+        <v>8</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="55">
+        <v>33</v>
+      </c>
+      <c r="E9" s="55">
+        <v>65</v>
+      </c>
+      <c r="F9" s="55">
+        <v>105</v>
+      </c>
+      <c r="G9" s="55">
+        <v>345</v>
+      </c>
+      <c r="H9" s="55">
+        <v>825</v>
+      </c>
+      <c r="I9" s="55">
+        <v>8025</v>
+      </c>
+      <c r="J9" s="55">
+        <v>80025</v>
+      </c>
+      <c r="K9" s="56">
+        <v>8000025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="51">
+        <v>25</v>
+      </c>
+      <c r="B10" s="51">
+        <v>8</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="55">
+        <v>33</v>
+      </c>
+      <c r="E10" s="55">
+        <v>65</v>
+      </c>
+      <c r="F10" s="55">
+        <v>105</v>
+      </c>
+      <c r="G10" s="55">
+        <v>345</v>
+      </c>
+      <c r="H10" s="55">
+        <v>825</v>
+      </c>
+      <c r="I10" s="55">
+        <v>8025</v>
+      </c>
+      <c r="J10" s="55">
+        <v>80025</v>
+      </c>
+      <c r="K10" s="56">
+        <v>8000025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="51">
+        <v>26</v>
+      </c>
+      <c r="B11" s="51">
+        <v>11</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="55">
+        <v>37</v>
+      </c>
+      <c r="E11" s="55">
+        <v>81</v>
+      </c>
+      <c r="F11" s="55">
+        <v>136</v>
+      </c>
+      <c r="G11" s="55">
+        <v>466</v>
+      </c>
+      <c r="H11" s="55">
+        <v>1126</v>
+      </c>
+      <c r="I11" s="55">
+        <v>11026</v>
+      </c>
+      <c r="J11" s="55">
+        <v>110026</v>
+      </c>
+      <c r="K11" s="56">
+        <v>11000026</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D11">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F11">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H11">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J11">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E334252C-F151-5542-8F31-0B97E459A08E}">
   <dimension ref="B1:L59"/>
   <sheetViews>
@@ -7494,7 +7960,7 @@
       <selection activeCell="B19" sqref="B19:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="10" width="11" bestFit="1" customWidth="1"/>
@@ -7502,7 +7968,7 @@
     <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7534,7 +8000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="34">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -7563,7 +8029,7 @@
         <v>5000096</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="29">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -7596,7 +8062,7 @@
         <v>6000062</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="29">
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -7629,7 +8095,7 @@
         <v>8000065</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="27">
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
@@ -7658,7 +8124,7 @@
         <v>9000109</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="27">
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
@@ -7687,7 +8153,7 @@
         <v>10000104</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="29">
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
@@ -7720,7 +8186,7 @@
         <v>6000063</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" ht="29">
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -7753,7 +8219,7 @@
         <v>8000024</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" ht="29">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -7782,7 +8248,7 @@
         <v>8000087</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="29">
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
@@ -7815,7 +8281,7 @@
         <v>10000032</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="29">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -7844,7 +8310,7 @@
         <v>10000030</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -7855,7 +8321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20">
         <v>1</v>
       </c>
@@ -7863,12 +8329,12 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="C21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
@@ -7903,7 +8369,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12">
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
@@ -7938,7 +8404,7 @@
         <v>5000096</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12">
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
@@ -7973,7 +8439,7 @@
         <v>6000062</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12">
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
@@ -8008,7 +8474,7 @@
         <v>8000065</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12">
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
@@ -8043,7 +8509,7 @@
         <v>9000109</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12">
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
@@ -8078,7 +8544,7 @@
         <v>10000104</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12">
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
@@ -8113,7 +8579,7 @@
         <v>6000063</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12">
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
@@ -8148,7 +8614,7 @@
         <v>8000024</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12">
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
@@ -8183,7 +8649,7 @@
         <v>8000087</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
@@ -8218,7 +8684,7 @@
         <v>10000032</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12">
       <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
@@ -8253,21 +8719,21 @@
         <v>10000030</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C36" s="15" t="s">
+    <row r="36" spans="2:12">
+      <c r="C36" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="39"/>
+    </row>
+    <row r="37" spans="2:12">
       <c r="B37" s="2"/>
       <c r="C37" s="13">
         <v>1</v>
@@ -8300,7 +8766,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12">
       <c r="B38" s="12" t="s">
         <v>10</v>
       </c>
@@ -8335,7 +8801,7 @@
         <v>5000096</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12">
       <c r="B39" s="12" t="s">
         <v>13</v>
       </c>
@@ -8370,7 +8836,7 @@
         <v>6000062</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12">
       <c r="B40" s="12" t="s">
         <v>16</v>
       </c>
@@ -8405,7 +8871,7 @@
         <v>8000065</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12">
       <c r="B41" s="12" t="s">
         <v>44</v>
       </c>
@@ -8440,7 +8906,7 @@
         <v>9000109</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12">
       <c r="B42" s="12" t="s">
         <v>25</v>
       </c>
@@ -8475,7 +8941,7 @@
         <v>6000063</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12">
       <c r="B43" s="12" t="s">
         <v>43</v>
       </c>
@@ -8510,7 +8976,7 @@
         <v>8000024</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12">
       <c r="B44" s="12" t="s">
         <v>30</v>
       </c>
@@ -8545,7 +9011,7 @@
         <v>8000087</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12">
       <c r="B45" s="12" t="s">
         <v>33</v>
       </c>
@@ -8580,7 +9046,7 @@
         <v>10000032</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12">
       <c r="B46" s="12" t="s">
         <v>36</v>
       </c>
@@ -8615,7 +9081,7 @@
         <v>10000030</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12">
       <c r="C50">
         <v>1</v>
       </c>
@@ -8647,408 +9113,408 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12">
       <c r="B51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="2">
-        <f>RANK(C38,C$38:C$46,1)</f>
+        <f t="shared" ref="C51:L51" si="0">RANK(C38,C$38:C$46,1)</f>
         <v>8</v>
       </c>
       <c r="D51" s="2">
-        <f>RANK(D38,D$38:D$46,1)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E51" s="2">
-        <f>RANK(E38,E$38:E$46,1)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F51" s="2">
-        <f>RANK(F38,F$38:F$46,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G51" s="2">
-        <f>RANK(G38,G$38:G$46,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H51" s="2">
-        <f>RANK(H38,H$38:H$46,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I51" s="2">
-        <f>RANK(I38,I$38:I$46,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J51" s="2">
-        <f>RANK(J38,J$38:J$46,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K51" s="2">
-        <f>RANK(K38,K$38:K$46,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L51" s="2">
-        <f>RANK(L38,L$38:L$46,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12">
       <c r="B52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="2">
-        <f>RANK(C39,C$38:C$46,1)</f>
+        <f t="shared" ref="C52:L52" si="1">RANK(C39,C$38:C$46,1)</f>
         <v>4</v>
       </c>
       <c r="D52" s="2">
-        <f>RANK(D39,D$38:D$46,1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E52" s="2">
-        <f>RANK(E39,E$38:E$46,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F52" s="2">
-        <f>RANK(F39,F$38:F$46,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G52" s="2">
-        <f>RANK(G39,G$38:G$46,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H52" s="2">
-        <f>RANK(H39,H$38:H$46,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I52" s="2">
-        <f>RANK(I39,I$38:I$46,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J52" s="2">
-        <f>RANK(J39,J$38:J$46,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K52" s="2">
-        <f>RANK(K39,K$38:K$46,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L52" s="2">
-        <f>RANK(L39,L$38:L$46,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12">
       <c r="B53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="2">
-        <f>RANK(C40,C$38:C$46,1)</f>
+        <f t="shared" ref="C53:L53" si="2">RANK(C40,C$38:C$46,1)</f>
         <v>6</v>
       </c>
       <c r="D53" s="2">
-        <f>RANK(D40,D$38:D$46,1)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E53" s="2">
-        <f>RANK(E40,E$38:E$46,1)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F53" s="2">
-        <f>RANK(F40,F$38:F$46,1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G53" s="2">
-        <f>RANK(G40,G$38:G$46,1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H53" s="2">
-        <f>RANK(H40,H$38:H$46,1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I53" s="2">
-        <f>RANK(I40,I$38:I$46,1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J53" s="2">
-        <f>RANK(J40,J$38:J$46,1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K53" s="2">
-        <f>RANK(K40,K$38:K$46,1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L53" s="2">
-        <f>RANK(L40,L$38:L$46,1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12">
       <c r="B54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="2">
-        <f>RANK(C41,C$38:C$46,1)</f>
+        <f t="shared" ref="C54:L54" si="3">RANK(C41,C$38:C$46,1)</f>
         <v>9</v>
       </c>
       <c r="D54" s="2">
-        <f>RANK(D41,D$38:D$46,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E54" s="2">
-        <f>RANK(E41,E$38:E$46,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F54" s="2">
-        <f>RANK(F41,F$38:F$46,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G54" s="2">
-        <f>RANK(G41,G$38:G$46,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H54" s="2">
-        <f>RANK(H41,H$38:H$46,1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I54" s="2">
-        <f>RANK(I41,I$38:I$46,1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="J54" s="2">
-        <f>RANK(J41,J$38:J$46,1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K54" s="2">
-        <f>RANK(K41,K$38:K$46,1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="L54" s="2">
-        <f>RANK(L41,L$38:L$46,1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12">
       <c r="B55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="2">
-        <f>RANK(C42,C$38:C$46,1)</f>
+        <f t="shared" ref="C55:L55" si="4">RANK(C42,C$38:C$46,1)</f>
         <v>5</v>
       </c>
       <c r="D55" s="2">
-        <f>RANK(D42,D$38:D$46,1)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E55" s="2">
-        <f>RANK(E42,E$38:E$46,1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F55" s="2">
-        <f>RANK(F42,F$38:F$46,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G55" s="2">
-        <f>RANK(G42,G$38:G$46,1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H55" s="2">
-        <f>RANK(H42,H$38:H$46,1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I55" s="2">
-        <f>RANK(I42,I$38:I$46,1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J55" s="2">
-        <f>RANK(J42,J$38:J$46,1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K55" s="2">
-        <f>RANK(K42,K$38:K$46,1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L55" s="2">
-        <f>RANK(L42,L$38:L$46,1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12">
       <c r="B56" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="2">
-        <f>RANK(C43,C$38:C$46,1)</f>
+        <f t="shared" ref="C56:L56" si="5">RANK(C43,C$38:C$46,1)</f>
         <v>1</v>
       </c>
       <c r="D56" s="2">
-        <f>RANK(D43,D$38:D$46,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E56" s="2">
-        <f>RANK(E43,E$38:E$46,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F56" s="2">
-        <f>RANK(F43,F$38:F$46,1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G56" s="2">
-        <f>RANK(G43,G$38:G$46,1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H56" s="2">
-        <f>RANK(H43,H$38:H$46,1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I56" s="2">
-        <f>RANK(I43,I$38:I$46,1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J56" s="2">
-        <f>RANK(J43,J$38:J$46,1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K56" s="2">
-        <f>RANK(K43,K$38:K$46,1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="L56" s="2">
-        <f>RANK(L43,L$38:L$46,1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12">
       <c r="B57" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="2">
-        <f>RANK(C44,C$38:C$46,1)</f>
+        <f t="shared" ref="C57:L57" si="6">RANK(C44,C$38:C$46,1)</f>
         <v>7</v>
       </c>
       <c r="D57" s="2">
-        <f>RANK(D44,D$38:D$46,1)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E57" s="2">
-        <f>RANK(E44,E$38:E$46,1)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="F57" s="2">
-        <f>RANK(F44,F$38:F$46,1)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G57" s="2">
-        <f>RANK(G44,G$38:G$46,1)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="H57" s="2">
-        <f>RANK(H44,H$38:H$46,1)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I57" s="2">
-        <f>RANK(I44,I$38:I$46,1)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J57" s="2">
-        <f>RANK(J44,J$38:J$46,1)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K57" s="2">
-        <f>RANK(K44,K$38:K$46,1)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="L57" s="2">
-        <f>RANK(L44,L$38:L$46,1)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12">
       <c r="B58" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="2">
-        <f>RANK(C45,C$38:C$46,1)</f>
+        <f t="shared" ref="C58:L58" si="7">RANK(C45,C$38:C$46,1)</f>
         <v>3</v>
       </c>
       <c r="D58" s="2">
-        <f>RANK(D45,D$38:D$46,1)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E58" s="2">
-        <f>RANK(E45,E$38:E$46,1)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F58" s="2">
-        <f>RANK(F45,F$38:F$46,1)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="G58" s="2">
-        <f>RANK(G45,G$38:G$46,1)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H58" s="2">
-        <f>RANK(H45,H$38:H$46,1)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="I58" s="2">
-        <f>RANK(I45,I$38:I$46,1)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J58" s="2">
-        <f>RANK(J45,J$38:J$46,1)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="K58" s="2">
-        <f>RANK(K45,K$38:K$46,1)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="L58" s="2">
-        <f>RANK(L45,L$38:L$46,1)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12">
       <c r="B59" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="2">
-        <f>RANK(C46,C$38:C$46,1)</f>
+        <f t="shared" ref="C59:L59" si="8">RANK(C46,C$38:C$46,1)</f>
         <v>2</v>
       </c>
       <c r="D59" s="2">
-        <f>RANK(D46,D$38:D$46,1)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E59" s="2">
-        <f>RANK(E46,E$38:E$46,1)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="F59" s="2">
-        <f>RANK(F46,F$38:F$46,1)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G59" s="2">
-        <f>RANK(G46,G$38:G$46,1)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="H59" s="2">
-        <f>RANK(H46,H$38:H$46,1)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I59" s="2">
-        <f>RANK(I46,I$38:I$46,1)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="J59" s="2">
-        <f>RANK(J46,J$38:J$46,1)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="K59" s="2">
-        <f>RANK(K46,K$38:K$46,1)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="L59" s="2">
-        <f>RANK(L46,L$38:L$46,1)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -9354,7 +9820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8302A24-5CFC-6348-8379-CC53AF488DD4}">
   <dimension ref="A3:K12"/>
   <sheetViews>
@@ -9362,328 +9828,328 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:11" ht="32">
+      <c r="A4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>0.79979999999999996</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="19">
         <v>0.71399999999999997</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="20">
         <v>0.2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>0.3125</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <v>60</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <v>6</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="19">
         <v>0.75480000000000003</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:11" ht="20">
+      <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="19">
         <v>0.79979999999999996</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="19">
         <v>0.71399999999999997</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="20">
         <v>0.2</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.3125</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <v>60</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="17">
         <v>6</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="19">
         <v>0.75480000000000003</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="17" t="s">
         <v>50</v>
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:11" ht="20">
+      <c r="A6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="19">
         <v>0.79979999999999996</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="19">
         <v>0.71399999999999997</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="20">
         <v>0.2</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>0.3125</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="17">
         <v>60</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <v>6</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="19">
         <v>0.75480000000000003</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="17" t="s">
         <v>50</v>
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:11" ht="32">
+      <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="20">
         <v>0.9</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>0.62</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="20">
         <v>0.35</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="20">
         <v>0.45</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <v>24</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="17">
         <v>8</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="20">
         <v>0.8</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:11" ht="32">
+      <c r="A8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="19">
         <v>0.67830000000000001</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="19">
         <v>0.76190000000000002</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17">
         <v>96</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="17">
         <v>5</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="32" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:11" ht="32">
+      <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="19">
         <v>0.87</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="19">
         <v>0.52</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <v>0.26</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="20">
         <v>0.34</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <v>32</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="17">
         <v>10</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="19">
         <v>0.86599999999999999</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:11" ht="32">
+      <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="19">
         <v>0.89400000000000002</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="19">
         <v>0.61899999999999999</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>0.34200000000000003</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="20">
         <v>0.44</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <v>25</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="17">
         <v>8</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="20">
         <v>0.76</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:11" ht="20">
+      <c r="A11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="19">
         <v>0.89400000000000002</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="19">
         <v>0.61899999999999999</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>0.34200000000000003</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="20">
         <v>0.44</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="17">
         <v>25</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="17">
         <v>8</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="20">
         <v>0.76</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" ht="32" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" ht="32">
+      <c r="A12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="19">
         <v>0.88200000000000001</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="19">
         <v>0.47599999999999998</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>0.27700000000000002</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <v>0.35</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <v>26</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="17">
         <v>11</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="20">
         <v>0.69</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9693,7 +10159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E0899-C7F8-A84C-99BD-7D449997F8BF}">
   <dimension ref="C7:D20"/>
   <sheetViews>
@@ -9701,108 +10167,108 @@
       <selection activeCell="C7" sqref="C7:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D7" s="24" t="s">
+    <row r="7" spans="3:4">
+      <c r="D7" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:4">
       <c r="C8">
         <v>3.5</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:4">
       <c r="C9">
         <v>1.5</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:4">
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="25" t="s">
+    <row r="11" spans="3:4">
+      <c r="D11" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D12" s="24" t="s">
+    <row r="12" spans="3:4">
+      <c r="D12" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:4">
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:4">
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:4">
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:4">
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:4">
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:4">
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:4">
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="27">
+    <row r="20" spans="3:4">
+      <c r="C20" s="24">
         <f>SUM(C8:C19)</f>
         <v>23</v>
       </c>
